--- a/worlds/occupancy_grid.xlsx
+++ b/worlds/occupancy_grid.xlsx
@@ -5,20 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keati\Desktop\New folder\worlds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keati\Desktop\autonomous sanitising robot\worlds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C701AAE-8766-4EF6-8934-C31E04FAACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32756507-A82B-4CCD-BAA7-7E5DADE6CE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -342,8 +352,8 @@
   </sheetPr>
   <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="BD31" sqref="BD31"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1:BF83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -496,6 +506,60 @@
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
       <c r="AP4">
         <v>1</v>
       </c>
@@ -504,6 +568,9 @@
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
       <c r="AP5">
         <v>1</v>
       </c>
@@ -512,6 +579,9 @@
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
       <c r="AP6">
         <v>1</v>
       </c>
@@ -520,6 +590,9 @@
       <c r="A7">
         <v>1</v>
       </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
       <c r="V7">
         <v>1</v>
       </c>
@@ -570,6 +643,9 @@
       <c r="A8">
         <v>1</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
       <c r="V8">
         <v>1</v>
       </c>
@@ -638,6 +714,9 @@
       <c r="A9">
         <v>1</v>
       </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
       <c r="V9">
         <v>1</v>
       </c>
@@ -706,6 +785,9 @@
       <c r="A10">
         <v>1</v>
       </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
       <c r="V10">
         <v>1</v>
       </c>
@@ -774,6 +856,9 @@
       <c r="A11">
         <v>1</v>
       </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
       <c r="V11">
         <v>1</v>
       </c>
@@ -842,6 +927,9 @@
       <c r="A12">
         <v>1</v>
       </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
       <c r="V12">
         <v>1</v>
       </c>
@@ -910,6 +998,9 @@
       <c r="A13">
         <v>1</v>
       </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
       <c r="V13">
         <v>1</v>
       </c>
@@ -978,6 +1069,9 @@
       <c r="A14">
         <v>1</v>
       </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
       <c r="V14">
         <v>1</v>
       </c>
@@ -1046,6 +1140,9 @@
       <c r="A15">
         <v>1</v>
       </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
       <c r="V15">
         <v>1</v>
       </c>
@@ -1114,6 +1211,9 @@
       <c r="A16">
         <v>1</v>
       </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
       <c r="V16">
         <v>1</v>
       </c>
@@ -1182,6 +1282,9 @@
       <c r="A17">
         <v>1</v>
       </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
       <c r="V17">
         <v>1</v>
       </c>
@@ -1250,6 +1353,9 @@
       <c r="A18">
         <v>1</v>
       </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
       <c r="V18">
         <v>1</v>
       </c>
@@ -1318,6 +1424,9 @@
       <c r="A19">
         <v>1</v>
       </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
       <c r="V19">
         <v>1</v>
       </c>
@@ -1386,6 +1495,9 @@
       <c r="A20">
         <v>1</v>
       </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
       <c r="V20">
         <v>1</v>
       </c>
@@ -1454,6 +1566,9 @@
       <c r="A21">
         <v>1</v>
       </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
       <c r="V21">
         <v>1</v>
       </c>
@@ -1522,6 +1637,9 @@
       <c r="A22">
         <v>1</v>
       </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
       <c r="V22">
         <v>1</v>
       </c>
@@ -1590,6 +1708,9 @@
       <c r="A23">
         <v>1</v>
       </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
       <c r="V23">
         <v>1</v>
       </c>
@@ -1658,6 +1779,9 @@
       <c r="A24">
         <v>1</v>
       </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
       <c r="V24">
         <v>1</v>
       </c>
@@ -1726,6 +1850,9 @@
       <c r="A25">
         <v>1</v>
       </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
       <c r="V25">
         <v>1</v>
       </c>
@@ -1794,6 +1921,9 @@
       <c r="A26">
         <v>1</v>
       </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
       <c r="V26">
         <v>1</v>
       </c>
@@ -1862,6 +1992,9 @@
       <c r="A27">
         <v>1</v>
       </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
       <c r="V27">
         <v>1</v>
       </c>
@@ -1930,6 +2063,9 @@
       <c r="A28">
         <v>1</v>
       </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
       <c r="V28">
         <v>1</v>
       </c>
@@ -1998,6 +2134,9 @@
       <c r="A29">
         <v>1</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
       <c r="V29">
         <v>1</v>
       </c>
@@ -2066,6 +2205,9 @@
       <c r="A30">
         <v>1</v>
       </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
       <c r="V30">
         <v>1</v>
       </c>
@@ -2134,6 +2276,9 @@
       <c r="A31">
         <v>1</v>
       </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
       <c r="V31">
         <v>1</v>
       </c>
@@ -2202,6 +2347,9 @@
       <c r="A32">
         <v>1</v>
       </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
       <c r="V32">
         <v>1</v>
       </c>
@@ -2270,6 +2418,9 @@
       <c r="A33">
         <v>1</v>
       </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
       <c r="V33">
         <v>1</v>
       </c>
@@ -2338,6 +2489,9 @@
       <c r="A34">
         <v>1</v>
       </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
       <c r="V34">
         <v>1</v>
       </c>
@@ -2406,6 +2560,9 @@
       <c r="A35">
         <v>1</v>
       </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
       <c r="V35">
         <v>1</v>
       </c>
@@ -2474,6 +2631,9 @@
       <c r="A36">
         <v>1</v>
       </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
       <c r="V36">
         <v>1</v>
       </c>
@@ -2545,6 +2705,9 @@
       <c r="K37">
         <v>1</v>
       </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
       <c r="V37">
         <v>1</v>
       </c>
@@ -2622,6 +2785,9 @@
       <c r="L38">
         <v>1</v>
       </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
       <c r="V38">
         <v>1</v>
       </c>
@@ -2705,6 +2871,9 @@
       <c r="M39">
         <v>1</v>
       </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
       <c r="AP39">
         <v>1</v>
       </c>
@@ -2734,6 +2903,9 @@
       <c r="O40">
         <v>1</v>
       </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
       <c r="AP40">
         <v>1</v>
       </c>
@@ -2769,6 +2941,9 @@
       <c r="Q41">
         <v>1</v>
       </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
       <c r="AP41">
         <v>1</v>
       </c>
@@ -2804,6 +2979,9 @@
       <c r="S42">
         <v>1</v>
       </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
       <c r="AP42">
         <v>1</v>
       </c>
@@ -2833,6 +3011,9 @@
       <c r="S43">
         <v>1</v>
       </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
       <c r="AI43">
         <v>1</v>
       </c>
@@ -2880,6 +3061,9 @@
       <c r="S44">
         <v>1</v>
       </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
       <c r="AI44">
         <v>1</v>
       </c>
@@ -2927,6 +3111,9 @@
       <c r="S45">
         <v>1</v>
       </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
       <c r="AI45">
         <v>1</v>
       </c>
@@ -2974,6 +3161,9 @@
       <c r="S46">
         <v>1</v>
       </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
       <c r="AI46">
         <v>1</v>
       </c>
@@ -3021,6 +3211,9 @@
       <c r="S47">
         <v>1</v>
       </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
       <c r="AI47">
         <v>1</v>
       </c>
@@ -3068,6 +3261,9 @@
       <c r="S48">
         <v>1</v>
       </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
       <c r="AI48">
         <v>1</v>
       </c>
@@ -3115,6 +3311,9 @@
       <c r="S49">
         <v>1</v>
       </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
       <c r="AP49">
         <v>1</v>
       </c>
@@ -3141,6 +3340,9 @@
       <c r="S50">
         <v>1</v>
       </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
       <c r="AP50">
         <v>1</v>
       </c>
@@ -3167,6 +3369,9 @@
       <c r="S51">
         <v>1</v>
       </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
       <c r="AP51">
         <v>1</v>
       </c>
@@ -3192,6 +3397,36 @@
       </c>
       <c r="S52">
         <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
       <c r="AP52">
         <v>1</v>
